--- a/upload_files/PINAR_YASAR_2020_2__jodel_job.xlsx
+++ b/upload_files/PINAR_YASAR_2020_2__jodel_job.xlsx
@@ -220,10 +220,10 @@
     <t>hadoop : 2</t>
   </si>
   <si>
+    <t>python : 1</t>
+  </si>
+  <si>
     <t>spark : 2</t>
-  </si>
-  <si>
-    <t>python : 1</t>
   </si>
   <si>
     <t>20.0</t>
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>70</v>
@@ -655,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -671,7 +671,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11">
